--- a/TestData/Excel.xlsx
+++ b/TestData/Excel.xlsx
@@ -13,25 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>Honda CRF300L</t>
-  </si>
-  <si>
-    <t>Rs. 3.30 Lakh</t>
-  </si>
-  <si>
-    <t>30 Mar 2024</t>
-  </si>
-  <si>
-    <t>Honda Forza 350</t>
-  </si>
-  <si>
-    <t>Rs. 3.70 Lakh</t>
-  </si>
-  <si>
-    <t>Mar 2024</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Honda Activa 7G</t>
   </si>
@@ -119,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -155,40 +137,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>10</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -206,7 +166,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
